--- a/Results_GRURegression2/CatsACCData/HVData+Memory20.xlsx
+++ b/Results_GRURegression2/CatsACCData/HVData+Memory20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,67 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="2">
@@ -443,7 +503,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02619087230414152</v>
+        <v>0.02627562619745731</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.02641621939837933</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02599950656294823</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.02658093236386776</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.02633853256702423</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.02664786614477634</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02680626474320889</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0268565870821476</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.02696936167776585</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.02701473757624626</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.02678992487490177</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.02713846191763878</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.02722097523510456</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.02718095257878304</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.02721414715051651</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.0275061808526516</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.02709781862795353</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.02765545211732388</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.02773069031536579</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.02764325700700283</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.0276136938482523</v>
       </c>
     </row>
   </sheetData>
